--- a/Data/EC/NIT-9009335239.xlsx
+++ b/Data/EC/NIT-9009335239.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD8C4C9-2A03-4629-92E7-357F6FCE92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83846309-93C2-4C66-B4B8-7E310083EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E00F8FA4-5C77-492D-8D31-BF9900E8A6CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D2C8C8D-AA11-4501-89AF-D153DABD1C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,151 +71,151 @@
     <t>MARTHA DEL PILAR PEDRAZA GRACIA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -259,7 +259,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +314,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +573,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,13 +614,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -629,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A155079E-4EC9-2F0B-96B4-4836D0FDB3F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8EE50-D10D-355F-913D-0DE4FF8B0244}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,7 +651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -980,28 +980,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF02063-A760-434E-9A7E-4B9CA03E8F1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C174D-9EC1-40A8-96C2-FA1212E0F062}">
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1014,7 +1014,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1025,7 +1025,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1036,7 +1036,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1047,8 +1047,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1063,8 +1063,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1079,8 +1079,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
@@ -1095,8 +1095,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>22916</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1167,7 +1167,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1190,7 +1190,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1213,7 +1213,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1236,7 +1236,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1259,7 +1259,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1282,7 +1282,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1305,7 +1305,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1328,7 +1328,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1351,7 +1351,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1374,7 +1374,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1397,7 +1397,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1420,7 +1420,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1443,7 +1443,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1466,7 +1466,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1489,7 +1489,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1512,7 +1512,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1535,7 +1535,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1558,7 +1558,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1581,7 +1581,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1604,7 +1604,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1627,7 +1627,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1650,7 +1650,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1673,7 +1673,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1765,7 +1765,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1788,7 +1788,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1811,7 +1811,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1834,7 +1834,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1857,7 +1857,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1880,7 +1880,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1903,7 +1903,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1926,7 +1926,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1949,7 +1949,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1972,7 +1972,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1995,7 +1995,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2018,7 +2018,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2041,7 +2041,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2064,7 +2064,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2087,7 +2087,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2110,7 +2110,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2133,7 +2133,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2156,7 +2156,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2179,7 +2179,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2202,7 +2202,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2225,7 +2225,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2248,7 +2248,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="21" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="24">
-        <v>27578</v>
+        <v>22916</v>
       </c>
       <c r="G64" s="24">
         <v>781242</v>
@@ -2271,7 +2271,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="26"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="32" t="s">
         <v>69</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="32" t="s">
         <v>68</v>
       </c>

--- a/Data/EC/NIT-9009335239.xlsx
+++ b/Data/EC/NIT-9009335239.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83846309-93C2-4C66-B4B8-7E310083EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79A3706C-1137-40E3-91BE-F1F5C655B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D2C8C8D-AA11-4501-89AF-D153DABD1C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A0D5662-0987-4B1E-BA67-C625F15BFF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -329,7 +327,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -523,29 +523,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,19 +564,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,13 +620,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -629,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8EE50-D10D-355F-913D-0DE4FF8B0244}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC40E08-C9E5-B28B-09C1-49EB048EB8DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,7 +657,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -980,80 +986,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C174D-9EC1-40A8-96C2-FA1212E0F062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752D55ED-C3C4-4B79-85F0-FD1B06D08B83}">
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1063,13 +1069,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009335239</v>
       </c>
@@ -1079,13 +1085,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1427422</v>
       </c>
@@ -1095,8 +1101,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
@@ -1115,7 +1121,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1154,20 +1160,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1177,20 +1183,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1200,20 +1206,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1223,20 +1229,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1246,20 +1252,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1269,20 +1275,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1292,20 +1298,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1315,20 +1321,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1338,20 +1344,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1361,20 +1367,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1384,20 +1390,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1407,20 +1413,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1430,20 +1436,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1453,20 +1459,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1476,20 +1482,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1499,20 +1505,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1522,20 +1528,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1545,20 +1551,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1568,20 +1574,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1591,20 +1597,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1614,20 +1620,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1637,20 +1643,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1660,20 +1666,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1683,20 +1689,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1706,20 +1712,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1729,20 +1735,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1752,20 +1758,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>31249</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1775,20 +1781,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>31249</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1798,20 +1804,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>31249</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1821,20 +1827,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>31249</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1844,20 +1850,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>31249</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1867,20 +1873,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>31249</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1890,20 +1896,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>31249</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1913,20 +1919,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>31249</v>
       </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1936,20 +1942,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>31249</v>
       </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1959,20 +1965,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>31249</v>
       </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1982,20 +1988,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>31249</v>
       </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2005,20 +2011,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>31249</v>
       </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2028,20 +2034,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>31249</v>
       </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2051,20 +2057,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>31249</v>
       </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2074,20 +2080,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>31249</v>
       </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2097,20 +2103,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>31249</v>
       </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2120,20 +2126,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>31249</v>
       </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2143,20 +2149,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>31249</v>
       </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2166,20 +2172,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>31249</v>
       </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2189,20 +2195,20 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>31249</v>
       </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2212,20 +2218,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>31249</v>
       </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2235,58 +2241,58 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>31249</v>
       </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="26">
         <v>22916</v>
       </c>
-      <c r="G64" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="32" t="s">
+      <c r="G64" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="32"/>
+      <c r="C69" s="34"/>
       <c r="H69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="32" t="s">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="H70" s="1" t="s">
         <v>70</v>
       </c>
